--- a/Output/Chiarion_1992 Chiarion 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Chiarion_1992 Chiarion 1992 OS DTIC_non_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.00978071494291</v>
+        <v>-2.97605246674702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.294620451678279</v>
+        <v>0.323540867216825</v>
       </c>
       <c r="D2" t="n">
         <v>302.132481494298</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.138978900167005</v>
+        <v>0.137278719565766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.170187449721332</v>
+        <v>0.216077907045135</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.48739055832804</v>
+        <v>2.4381676875878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.423446230224185</v>
+        <v>0.484812865854487</v>
       </c>
       <c r="D2" t="n">
         <v>297.038052297927</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.07834058869686</v>
+        <v>-1.07201620635763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159202180743191</v>
+        <v>0.192364462982496</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.3202820840382</v>
+        <v>-2.28588536418224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12396398295321</v>
+        <v>0.118148159030896</v>
       </c>
       <c r="D2" t="n">
         <v>294.367894083753</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.01411001829335</v>
+        <v>1.97834259892908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341808204640746</v>
+        <v>0.38226490490551</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.65972894717063</v>
+        <v>-2.65027185824501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189263107546043</v>
+        <v>0.225090686544683</v>
       </c>
       <c r="D2" t="n">
         <v>301.887156698239</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00246882176944569</v>
+        <v>0.00000447698641238702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0180428086912718</v>
+        <v>0.0270325818460841</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.086801210547113</v>
+        <v>0.104678692759415</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0421769037283446</v>
+        <v>-0.0591706299533721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0421769037283446</v>
+        <v>-0.0591706299533721</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0289637680426511</v>
+        <v>0.0466896619130061</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.179306709891073</v>
+        <v>0.235043514898041</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0627180539399422</v>
+        <v>-0.0878022120874772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0627180539399422</v>
+        <v>-0.0878022120874772</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0253453343533878</v>
+        <v>0.0370040866185441</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0153670690696236</v>
+        <v>0.01395898748239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00454031818455012</v>
+        <v>-0.00159880999586965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00454031818455012</v>
+        <v>-0.00159880999586965</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11683284875973</v>
+        <v>0.146126457522419</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0358205238779849</v>
+        <v>0.0506658171691567</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00230345389205733</v>
+        <v>-0.00415997704233024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00230345389205733</v>
+        <v>-0.00415997704233024</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000325542945469833</v>
+        <v>0.000730760481265237</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Chiarion_1992 Chiarion 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Chiarion_1992 Chiarion 1992 OS DTIC_non_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.97605246674702</v>
+        <v>-3.00978071494291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.323540867216825</v>
+        <v>0.294620451678279</v>
       </c>
       <c r="D2" t="n">
         <v>302.132481494298</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.137278719565766</v>
+        <v>0.138978900167005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216077907045135</v>
+        <v>0.170187449721332</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.4381676875878</v>
+        <v>2.48739055832804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.484812865854487</v>
+        <v>0.423446230224185</v>
       </c>
       <c r="D2" t="n">
         <v>297.038052297927</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.07201620635763</v>
+        <v>-1.07834058869686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192364462982496</v>
+        <v>0.159202180743191</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.28588536418224</v>
+        <v>-2.3202820840382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.118148159030896</v>
+        <v>0.12396398295321</v>
       </c>
       <c r="D2" t="n">
         <v>294.367894083753</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.97834259892908</v>
+        <v>0.686335169404983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.38226490490551</v>
+        <v>0.16539975502107</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.65027185824501</v>
+        <v>-2.65972894717063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.225090686544683</v>
+        <v>0.189263107546043</v>
       </c>
       <c r="D2" t="n">
         <v>301.887156698239</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00000447698641238702</v>
+        <v>-0.00246882176944569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0270325818460841</v>
+        <v>0.0180428086912718</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.104678692759415</v>
+        <v>0.086801210547113</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0591706299533721</v>
+        <v>-0.0421769037283446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0591706299533721</v>
+        <v>-0.0421769037283446</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0466896619130061</v>
+        <v>0.0289637680426511</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.235043514898041</v>
+        <v>0.179306709891073</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0878022120874772</v>
+        <v>-0.0627180539399422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0878022120874772</v>
+        <v>-0.0627180539399422</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0370040866185441</v>
+        <v>0.0253453343533878</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01395898748239</v>
+        <v>0.0153670690696236</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00159880999586965</v>
+        <v>-0.00232816030093871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00159880999586965</v>
+        <v>-0.00232816030093871</v>
       </c>
       <c r="B3" t="n">
-        <v>0.146126457522419</v>
+        <v>0.02735707896103</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0506658171691567</v>
+        <v>0.0358205238779849</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00415997704233024</v>
+        <v>-0.00230345389205733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00415997704233024</v>
+        <v>-0.00230345389205733</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000730760481265237</v>
+        <v>0.000325542945469833</v>
       </c>
     </row>
   </sheetData>
